--- a/LittleI/Assets/Level2/Excels/LevelTwoConfig.xlsx
+++ b/LittleI/Assets/Level2/Excels/LevelTwoConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="25785"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="LevelTwoConfigEntities" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>value</t>
+    <t>snapshot1</t>
+  </si>
+  <si>
+    <t>snapshot2</t>
+  </si>
+  <si>
+    <t>snapshot3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -963,60 +987,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LittleI/Assets/Level2/Excels/LevelTwoConfig.xlsx
+++ b/LittleI/Assets/Level2/Excels/LevelTwoConfig.xlsx
@@ -990,7 +990,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
